--- a/RGV410046/data/data.xlsx
+++ b/RGV410046/data/data.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UFSC\aulas\classes\RGV410046\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108511F-B815-4A45-8BFC-2FFDB348B40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67074E3-FDF1-4C0A-8531-8F0A2E9B1251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_ge" sheetId="2" r:id="rId1"/>
-    <sheet name="df_messy" sheetId="1" r:id="rId2"/>
-    <sheet name="df_wider" sheetId="3" r:id="rId3"/>
+    <sheet name="tidy" sheetId="4" r:id="rId2"/>
+    <sheet name="df_messy" sheetId="1" r:id="rId3"/>
+    <sheet name="df_wider" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t>H1</t>
   </si>
@@ -152,6 +153,9 @@
   <si>
     <t>B3</t>
   </si>
+  <si>
+    <t>HIBRIDO</t>
+  </si>
 </sst>
 </file>
 
@@ -186,9 +190,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -489,15 +492,16 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
@@ -2032,8 +2036,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF44AE61-01D2-467F-8866-18C0E5CC6622}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="D2">
+        <v>1.8779999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>2.9740000000000002</v>
+      </c>
+      <c r="D3">
+        <v>1.8340000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.6739999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>2.12</v>
+      </c>
+      <c r="D6">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="D7">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -2104,107 +2267,107 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1.64</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>16.72</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>54.05</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>31.66</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>193.69</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>15.6</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>379.61</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>519.20000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2.79</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1.71</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>14.9</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>52.73</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>32.03</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>15.48</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>176.43</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>346.88</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>502.4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="1">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2.72</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.51</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>16.68</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>52.74</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>30.4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>17.5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>207.11</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>16.8</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>394.03</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>524.6</v>
       </c>
     </row>
@@ -2212,105 +2375,105 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2.75</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1.51</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>17.420000000000002</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>51.69</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>30.64</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>17.98</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>217.29</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>16.8</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>376.65</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2.72</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1.56</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>16.7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>47.21</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>28.69</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>17.2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>181.28</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>13.6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>360.66</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>500.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.77</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1.67</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>15.78</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>47.87</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>27.63</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>16.36</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>166.19</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>15.2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>321.8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>512.79999999999995</v>
       </c>
     </row>
@@ -2318,107 +2481,107 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2.73</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1.54</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>14.88</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>47.51</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>28.22</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>15.54</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>160.97999999999999</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>14.8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>344.84</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>480.2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2.56</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1.56</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>15.68</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>49.86</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>29.85</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>16.16</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>187.96</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>17.2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>328.33</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>585.79999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2.79</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1.53</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>14.98</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>52.67</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>31.38</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>15.24</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>192.51</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>20</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>325.36</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>594</v>
       </c>
     </row>
@@ -2426,107 +2589,107 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2.74</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1.6</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>14.64</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>54</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>32.479999999999997</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>15.06</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>205.34</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>20</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>334.37</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>628.4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>2.64</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1.37</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>14.8</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>53.73</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>30.97</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>15.54</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>238.55</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>348.72</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>693.2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.93</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1.77</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>14.92</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>52.66</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>30.07</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>15.76</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>211.92</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>15.6</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>421.23</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>511.6</v>
       </c>
     </row>
@@ -2534,107 +2697,107 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1.22</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>15.08</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>51.66</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>27.71</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>15.3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>197.7</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>382.06</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>518.20000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>2.9</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1.41</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>15.12</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>51.53</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>26.04</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>16</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>212.18</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>21.2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>304.51</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>696.6</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>2.92</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1.39</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>14.78</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>52.63</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>26.04</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>15.14</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>201.62</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>20</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>300.02</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>650.4</v>
       </c>
     </row>
@@ -2642,107 +2805,107 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>3.04</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>1.43</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>15.02</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>51.66</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>25.93</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>16.559999999999999</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>209.8</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>317.48</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>641.6</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="1">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>2.94</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1.66</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>14.88</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>51.46</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>31.33</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>15.46</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>192.84</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>18</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>345.83</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>550.6</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>2.82</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>1.67</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>16.46</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>52.25</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>26.74</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>17.079999999999998</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>191.99</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>18</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>311.73</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>637.4</v>
       </c>
     </row>
@@ -2750,105 +2913,105 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>3.02</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1.82</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>16.54</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>50.43</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>27.31</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>17.260000000000002</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>193.02</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>16.8</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>305.33</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>2.84</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>1.69</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>15.04</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>52.17</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>27.95</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>15.72</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>215.69</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>357.3</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>613.6</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>2.74</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1.52</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>16.34</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>49.57</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>27.01</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>196.76</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>14</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>350.15</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>562.20000000000005</v>
       </c>
     </row>
@@ -2856,107 +3019,107 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>2.9</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>1.58</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>16.02</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>48.66</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>27.99</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>17</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>198.18</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>14</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>373.79</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>5302</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>2.82</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1.61</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>14.68</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>50.26</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>27.87</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>16.149999999999999</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>180.83</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>14.4</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>352.22</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>508.6</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C25" s="1">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>2.78</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>1.59</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>50.64</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>29.08</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>16.940000000000001</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>199.09</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>15.2</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>343.47</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>577.6</v>
       </c>
     </row>
@@ -2964,107 +3127,107 @@
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>2.9</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1.59</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>54.86</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>32.04</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>17.940000000000001</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>250.89</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>386.55</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>648</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>2.74</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>1.69</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>16.8</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>53.08</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>31.23</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>225.47</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>16</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>402.7</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>560.79999999999995</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="1">
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>2.67</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>1.45</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>54.4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>31.81</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>17.22</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>219.2</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>16.8</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>447</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>496.8</v>
       </c>
     </row>
@@ -3072,107 +3235,107 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>2.87</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>1.56</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>50.27</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>28.42</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>17.12</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>206.3</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>16.8</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>337.42</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>608.4</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>2.78</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>1.67</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>15.38</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>52.03</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>32.49</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>16.52</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>163.34</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>18</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>344.58</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>494</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="1">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>2.68</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>1.56</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>14.34</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>50.27</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>31.01</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>14.76</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>175</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>18.8</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>332.29</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>529.6</v>
       </c>
     </row>
@@ -3180,107 +3343,107 @@
       <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>2.59</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>1.3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>12.74</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>51.03</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>30.03</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>14.14</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>184.87</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>18.8</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>312.86</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>597.79999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="1">
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>2.76</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>1.55</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>17.079999999999998</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>52.43</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>34.659999999999997</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>18.260000000000002</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>211.57</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>17.2</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>372.25</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>565.20000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="1">
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>2.73</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>1.54</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>15.6</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>53.31</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>32.61</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>17</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>191.89</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>15.6</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>412.06</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>462.4</v>
       </c>
     </row>
@@ -3288,107 +3451,107 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>1.71</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>12.24</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>51.78</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>31.58</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>15.06</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>182.83</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>14.4</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>410.02</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>445.4</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="1">
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>2.96</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>1.61</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>17.5</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>53.62</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>32.51</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>18.12</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>224</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>14.4</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>439.06</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <v>510.4</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="1">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>2.81</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>1.69</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>16.8</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>52.69</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>31.76</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>17.66</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>205.69</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>16</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>390.18</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>509.8</v>
       </c>
     </row>
@@ -3399,107 +3562,107 @@
       <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>1.88</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>15.14</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>50.79</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>31.11</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>15.64</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>190.56</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>389.35</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>488.2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="1">
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>2.97</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>1.83</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>15.16</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>52.09</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>31.22</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>15.7</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>197.04</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>17.2</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>390.39</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>506.2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="1">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>2.81</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>1.67</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>14.62</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>52.74</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>32.21</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>15.14</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>176.99</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>387.06</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>458.8</v>
       </c>
     </row>
@@ -3507,107 +3670,107 @@
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>2.1</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0.91</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>16.04</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>46.69</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>27.22</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>150.97999999999999</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>15.2</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>286.08</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>541.79999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="1">
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>2.12</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>1.03</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>14.58</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>46.38</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>26.56</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>15.51</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>151.58000000000001</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>13.2</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>329.17</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>458.6</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="1">
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>1.92</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>1.02</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>15.96</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>47.12</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>26.6</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>16.3</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>177.13</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>13.6</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>332.56</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>531.4</v>
       </c>
     </row>
@@ -3615,107 +3778,107 @@
       <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>2.13</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>1.05</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>14.78</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>46.95</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>27.02</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>15.88</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>169.05</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>13.2</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>346.97</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="1">
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>2.13</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>1.01</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>15.96</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>47.67</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>27.99</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>16.3</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>168.29</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>14</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>322.43</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <v>521.20000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="1">
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>0.99</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>14.62</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>47.33</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>26.69</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>14.78</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>153.47999999999999</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>14</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>356.51</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <v>425.8</v>
       </c>
     </row>
@@ -3723,107 +3886,107 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>2.15</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>0.98</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>14.28</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>45.26</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>25.69</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <v>14.8</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>137.77000000000001</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>13.6</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>307.87</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="1">
         <v>437.8</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="1">
+      <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>2.19</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>0.87</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>13.3</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>47.78</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>27.35</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>13.56</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>134.57</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>13.6</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>377.9</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>354</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="1">
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>1.95</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>0.83</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>12.5</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>47.16</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>28.65</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>13.28</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>121.48</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>253.73</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>480.2</v>
       </c>
     </row>
@@ -3831,107 +3994,107 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>15.28</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>47.87</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>32.76</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>16.02</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>163.27000000000001</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>17.2</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>331.4</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>498.8</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C51" s="1">
+      <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>2.27</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>1.17</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>15.54</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>50.15</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>30.58</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>16.5</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>153.24</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>15.2</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>324.04000000000002</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>486.8</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C52" s="1">
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>2.19</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>1.06</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>16.3</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>52.78</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>32.549999999999997</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>17.8</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>190.7</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>18</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>325.13</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>583</v>
       </c>
     </row>
@@ -3939,107 +4102,107 @@
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>2.98</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>1.76</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>15.8</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>52.95</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>32.11</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>16.2</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>223.21</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>402.18</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>556.4</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="1">
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>3.03</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>1.87</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>53.57</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>33</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>16.7</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>214.31</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>429</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>510.4</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C55" s="1">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>2.82</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>1.61</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>16.059999999999999</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>53.05</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>33.020000000000003</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>16.88</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>219.05</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>17.2</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>415.84</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>527.4</v>
       </c>
     </row>
@@ -4047,107 +4210,107 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>2.8</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>1.8</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>13.36</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>51.74</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>31.13</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="1">
         <v>14.04</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>172.8</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <v>15.6</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1">
         <v>365.22</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <v>467</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="1">
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>3.04</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>1.8</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>17.579999999999998</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>51.09</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>29.94</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="1">
         <v>18.04</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>228.37</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <v>14.4</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1">
         <v>451.68</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="1">
         <v>506.6</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="1">
+      <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>2.98</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>1.66</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>14.98</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="1">
         <v>48.21</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="1">
         <v>29.17</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="1">
         <v>15.5</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <v>171.66</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <v>14.8</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <v>383.23</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="1">
         <v>450</v>
       </c>
     </row>
@@ -4155,107 +4318,107 @@
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>2.94</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>1.71</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>16.3</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="1">
         <v>49.82</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="1">
         <v>30.39</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="1">
         <v>16.760000000000002</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <v>196.43</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <v>15.2</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <v>400.52</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="1">
         <v>489.8</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="1">
+      <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>2.75</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>1.62</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>16.579999999999998</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <v>49.81</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="1">
         <v>31.01</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="1">
         <v>17.68</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <v>190.22</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <v>14.8</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <v>398.18</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="1">
         <v>477.2</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="1">
+      <c r="C61">
         <v>3</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>2.85</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>1.55</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>16.66</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>48.45</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>27.53</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>17.18</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>205.74</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <v>14.8</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1">
         <v>367.27</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="1">
         <v>564.4</v>
       </c>
     </row>
@@ -4263,107 +4426,107 @@
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>2.79</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>1.42</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>16.62</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <v>48.66</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>27.91</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <v>17.22</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <v>198.92</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="1">
         <v>16</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <v>352.65</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="1">
         <v>566</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="1">
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>1.36</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>16.260000000000002</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="1">
         <v>45.99</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>26.36</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>16.84</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>161.29</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <v>14.8</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <v>307.63</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <v>528.79999999999995</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C64" s="1">
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>2.77</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>1.48</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>16.559999999999999</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>49.79</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>28</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="1">
         <v>17</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <v>198.52</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <v>17.2</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="1">
         <v>338.24</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="1">
         <v>586.4</v>
       </c>
     </row>
@@ -4371,107 +4534,107 @@
       <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>2.92</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>1.6</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>16.28</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="1">
         <v>50.7</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>26.49</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="1">
         <v>16.8</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <v>194.23</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="1">
         <v>359.06</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="1">
         <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C66" s="1">
+      <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>2.61</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>1.47</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>17.5</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="1">
         <v>50.42</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>27.02</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="1">
         <v>17.78</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <v>214.75</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <v>17.2</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="1">
         <v>329.28</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="1">
         <v>651.79999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C67" s="1">
+      <c r="C67">
         <v>3</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>2.94</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>1.58</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>17.940000000000001</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <v>53.74</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>27.16</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <v>18.28</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <v>236.11</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <v>17.2</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="1">
         <v>349.75</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <v>674.4</v>
       </c>
     </row>
@@ -4479,107 +4642,107 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>1.19</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>14.28</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="1">
         <v>47.08</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>25.72</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="1">
         <v>15.44</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <v>144.81</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <v>14.8</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="1">
         <v>298.20999999999998</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="1">
         <v>469.8</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C69" s="1">
+      <c r="C69">
         <v>2</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>2.16</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>14.38</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="1">
         <v>48.59</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="1">
         <v>28.22</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="1">
         <v>15.54</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <v>151.58000000000001</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="1">
         <v>285.06</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="1">
         <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C70" s="1">
+      <c r="C70">
         <v>3</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>1.03</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>15.16</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="1">
         <v>46.3</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>27.63</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <v>15.52</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <v>135.01</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <v>15.6</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="1">
         <v>292.94</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="1">
         <v>463.4</v>
       </c>
     </row>
@@ -4587,107 +4750,107 @@
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>2.02</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>0.93</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>14.66</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>44.71</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>25.21</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>15.26</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="1">
         <v>118.68</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="1">
         <v>16</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <v>248.01</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <v>469.4</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C72" s="1">
+      <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>1.81</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>0.75</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>13.34</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>45.28</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>23.85</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>13.5</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="1">
         <v>113.3</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <v>15.6</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <v>228.9</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="1">
         <v>493.6</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C73" s="1">
+      <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>2.04</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>0.86</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>13.08</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="1">
         <v>45.79</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>24.65</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>14.06</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="1">
         <v>106.9</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <v>231.94</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <v>467.2</v>
       </c>
     </row>
@@ -4695,107 +4858,107 @@
       <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>2.1</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>1.06</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>12.66</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="1">
         <v>44.76</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>26.89</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>13.64</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="1">
         <v>105.72</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <v>237.63</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <v>470.4</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C75" s="1">
+      <c r="C75">
         <v>2</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>2.29</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>1.43</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>14.04</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <v>45.87</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>27.02</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>14.6</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <v>108.73</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <v>17.2</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <v>259.16000000000003</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="1">
         <v>425.6</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C76" s="1">
+      <c r="C76">
         <v>3</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>2.21</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>1.17</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>13.86</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="1">
         <v>45.65</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="1">
         <v>26.45</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="1">
         <v>14.84</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="1">
         <v>122.55</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="1">
         <v>16</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="1">
         <v>226.6</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="1">
         <v>538.79999999999995</v>
       </c>
     </row>
@@ -4806,107 +4969,107 @@
       <c r="B77" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>2.11</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>1.05</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>15.74</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="1">
         <v>49.93</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="1">
         <v>30.53</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="1">
         <v>164.25</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="1">
         <v>15.6</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="1">
         <v>347.24</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="1">
         <v>458.4</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C78" s="1">
+      <c r="C78">
         <v>2</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>13.7</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="1">
         <v>49.2</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="1">
         <v>30.46</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="1">
         <v>14.66</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="1">
         <v>130.19999999999999</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="1">
         <v>336.9</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="1">
         <v>386.4</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C79" s="1">
+      <c r="C79">
         <v>3</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>2.29</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>15.06</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="1">
         <v>52.64</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="1">
         <v>31.7</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="1">
         <v>16.16</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <v>176</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="1">
         <v>15.6</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="1">
         <v>422.17</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="1">
         <v>430.6</v>
       </c>
     </row>
@@ -4914,107 +5077,107 @@
       <c r="B80" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>1.79</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>0.89</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>13.94</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="1">
         <v>44.06</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="1">
         <v>26.23</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="1">
         <v>15.04</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <v>115.87</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <v>14.8</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="1">
         <v>258.3</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="1">
         <v>445.6</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C81" s="1">
+      <c r="C81">
         <v>2</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>1.03</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>13.56</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="1">
         <v>43.88</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="1">
         <v>23.49</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="1">
         <v>14.44</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="1">
         <v>118.07</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="1">
         <v>16</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="1">
         <v>232.59</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="1">
         <v>496.4</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C82" s="1">
+      <c r="C82">
         <v>3</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>2.27</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <v>14.46</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="1">
         <v>43.68</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="1">
         <v>24.61</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="1">
         <v>16.059999999999999</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="1">
         <v>127.73</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="1">
         <v>15.2</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="1">
         <v>250.89</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="1">
         <v>524.4</v>
       </c>
     </row>
@@ -5022,107 +5185,107 @@
       <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>1.71</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>0.81</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>15.48</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="1">
         <v>45.21</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="1">
         <v>24.99</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="1">
         <v>16.72</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="1">
         <v>140.18</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="1">
         <v>15.6</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="1">
         <v>263.70999999999998</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="1">
         <v>534.6</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C84" s="1">
+      <c r="C84">
         <v>2</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>2.09</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>1.06</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <v>12.24</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="1">
         <v>46.91</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="1">
         <v>26.53</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="1">
         <v>14.3</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="1">
         <v>114.12</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="1">
         <v>16.8</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="1">
         <v>287.58</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="1">
         <v>397</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C85" s="1">
+      <c r="C85">
         <v>3</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>2.5</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>1.44</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>15.02</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="1">
         <v>49.03</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="1">
         <v>27.52</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="1">
         <v>15.16</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="1">
         <v>167.85</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="1">
         <v>314.60000000000002</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="1">
         <v>531.6</v>
       </c>
     </row>
@@ -5130,107 +5293,107 @@
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>2.52</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>1.52</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <v>14.36</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="1">
         <v>49.17</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="1">
         <v>28.41</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="1">
         <v>15</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="1">
         <v>153.08000000000001</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86" s="1">
         <v>291.2</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="1">
         <v>524.79999999999995</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C87" s="1">
+      <c r="C87">
         <v>2</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>2.77</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>1.58</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <v>13.78</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="1">
         <v>46.52</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="1">
         <v>23.78</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="1">
         <v>14.62</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="1">
         <v>153.06</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L87" s="2">
+      <c r="L87" s="1">
         <v>282.99</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="1">
         <v>532.20000000000005</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C88" s="1">
+      <c r="C88">
         <v>3</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>2</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>0.78</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <v>13.73</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="1">
         <v>47.53</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="1">
         <v>25.29</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="1">
         <v>14.34</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="1">
         <v>138.94999999999999</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="1">
         <v>14.8</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88" s="1">
         <v>276.7</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="1">
         <v>493.6</v>
       </c>
     </row>
@@ -5238,107 +5401,107 @@
       <c r="B89" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>2.52</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="1">
         <v>51.67</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="1">
         <v>28.15</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="1">
         <v>16.64</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="1">
         <v>199.14</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="1">
         <v>18</v>
       </c>
-      <c r="L89" s="2">
+      <c r="L89" s="1">
         <v>380.28</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="1">
         <v>530.20000000000005</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C90" s="1">
+      <c r="C90">
         <v>2</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>2.58</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>1.32</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>15.24</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="1">
         <v>50.25</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="1">
         <v>26.73</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="1">
         <v>15.9</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="1">
         <v>173.86</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="1">
         <v>258.82</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="1">
         <v>667.8</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C91" s="1">
+      <c r="C91">
         <v>3</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>2.69</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>1.52</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <v>14.82</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="1">
         <v>50.1</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="1">
         <v>26.96</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="1">
         <v>15.44</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="1">
         <v>171.81</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="1">
         <v>17.2</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="1">
         <v>319.77999999999997</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91" s="1">
         <v>538.6</v>
       </c>
     </row>
@@ -5346,107 +5509,107 @@
       <c r="B92" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>1</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>14.78</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="1">
         <v>50.54</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="1">
         <v>29.94</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="1">
         <v>16.440000000000001</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="1">
         <v>155.35</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="1">
         <v>16</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="1">
         <v>324.54000000000002</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="1">
         <v>478</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C93" s="1">
+      <c r="C93">
         <v>2</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>2.1</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>0.98</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>15.92</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="1">
         <v>50.2</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="1">
         <v>30.34</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="1">
         <v>16.98</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="1">
         <v>165.85</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="1">
         <v>16</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="1">
         <v>356.2</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93" s="1">
         <v>470.4</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C94" s="1">
+      <c r="C94">
         <v>3</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>2.31</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>15.5</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="1">
         <v>51.16</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="1">
         <v>30.15</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="1">
         <v>159.72</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="1">
         <v>15.2</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="1">
         <v>357.05</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="1">
         <v>450.6</v>
       </c>
     </row>
@@ -5454,107 +5617,107 @@
       <c r="B95" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>2.09</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>1.02</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="1">
         <v>15.5</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="1">
         <v>49.75</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="1">
         <v>30.08</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="1">
         <v>16.68</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="1">
         <v>157.49</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="1">
         <v>16.8</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L95" s="1">
         <v>333.29</v>
       </c>
-      <c r="M95" s="2">
+      <c r="M95" s="1">
         <v>483</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C96" s="1">
+      <c r="C96">
         <v>2</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>1.96</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>0.93</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="1">
         <v>15.48</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="1">
         <v>46.23</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="1">
         <v>27.35</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="1">
         <v>16.239999999999998</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="1">
         <v>135.37</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="1">
         <v>14</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96" s="1">
         <v>349.85</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96" s="1">
         <v>389.6</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C97" s="1">
+      <c r="C97">
         <v>3</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>2.08</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>0.91</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>13.22</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="1">
         <v>45.23</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="1">
         <v>28.28</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="1">
         <v>16.32</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="1">
         <v>124.1</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="1">
         <v>13.6</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L97" s="1">
         <v>325.02999999999997</v>
       </c>
-      <c r="M97" s="2">
+      <c r="M97" s="1">
         <v>390.4</v>
       </c>
     </row>
@@ -5562,107 +5725,107 @@
       <c r="B98" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>1.99</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>0.92</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <v>15.84</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="1">
         <v>43.88</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="1">
         <v>27.81</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="1">
         <v>17.02</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="1">
         <v>141.16</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="1">
         <v>12.4</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98" s="1">
         <v>316.74</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="1">
         <v>446</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C99" s="1">
+      <c r="C99">
         <v>2</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>2.14</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>1.03</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <v>16.84</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="1">
         <v>46.23</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="1">
         <v>27.86</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="1">
         <v>17.22</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="1">
         <v>158.93</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="1">
         <v>13.2</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="1">
         <v>341.28</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99" s="1">
         <v>466.2</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C100" s="1">
+      <c r="C100">
         <v>3</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>2.02</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <v>0.88</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="1">
         <v>13.92</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="1">
         <v>47.35</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="1">
         <v>27.37</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="1">
         <v>15.44</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="1">
         <v>130.27000000000001</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="1">
         <v>16</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L100" s="1">
         <v>262.16000000000003</v>
       </c>
-      <c r="M100" s="2">
+      <c r="M100" s="1">
         <v>510.4</v>
       </c>
     </row>
@@ -5670,107 +5833,107 @@
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>0.95</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="1">
         <v>14.56</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="1">
         <v>49.97</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="1">
         <v>31.35</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="1">
         <v>15.96</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="1">
         <v>149.82</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="1">
         <v>16.8</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101" s="1">
         <v>302.89999999999998</v>
       </c>
-      <c r="M101" s="2">
+      <c r="M101" s="1">
         <v>502.6</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C102" s="1">
+      <c r="C102">
         <v>2</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <v>0.93</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="1">
         <v>15.3</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="1">
         <v>49.08</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="1">
         <v>29.88</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="1">
         <v>16.22</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="1">
         <v>144.4</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="1">
         <v>18</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102" s="1">
         <v>293.20999999999998</v>
       </c>
-      <c r="M102" s="2">
+      <c r="M102" s="1">
         <v>515.4</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C103" s="1">
+      <c r="C103">
         <v>3</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>2.23</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>1</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="1">
         <v>14.22</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="1">
         <v>51.33</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="1">
         <v>29.61</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="1">
         <v>17.36</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="1">
         <v>189.14</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103" s="1">
         <v>320.39</v>
       </c>
-      <c r="M103" s="2">
+      <c r="M103" s="1">
         <v>591.4</v>
       </c>
     </row>
@@ -5778,107 +5941,107 @@
       <c r="B104" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <v>2.11</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="1">
         <v>13.36</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="1">
         <v>48.61</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="1">
         <v>33.159999999999997</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="1">
         <v>14</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104" s="1">
         <v>123.84</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L104" s="2">
+      <c r="L104" s="1">
         <v>311.76</v>
       </c>
-      <c r="M104" s="2">
+      <c r="M104" s="1">
         <v>403.8</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C105" s="1">
+      <c r="C105">
         <v>2</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="1">
         <v>2.09</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1">
         <v>1.06</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="1">
         <v>13.78</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="1">
         <v>49.44</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="1">
         <v>31.5</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="1">
         <v>14.98</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105" s="1">
         <v>131.06</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="1">
         <v>17.2</v>
       </c>
-      <c r="L105" s="2">
+      <c r="L105" s="1">
         <v>298.77999999999997</v>
       </c>
-      <c r="M105" s="2">
+      <c r="M105" s="1">
         <v>436.4</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C106" s="1">
+      <c r="C106">
         <v>3</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <v>1.24</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="1">
         <v>13.46</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="1">
         <v>51.94</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="1">
         <v>31.05</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="1">
         <v>15.32</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="1">
         <v>156.30000000000001</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="1">
         <v>15.6</v>
       </c>
-      <c r="L106" s="2">
+      <c r="L106" s="1">
         <v>373.58</v>
       </c>
-      <c r="M106" s="2">
+      <c r="M106" s="1">
         <v>418.4</v>
       </c>
     </row>
@@ -5886,107 +6049,107 @@
       <c r="B107" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>2.19</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="1">
         <v>1.18</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="1">
         <v>14.44</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="1">
         <v>49.96</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="1">
         <v>30.74</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="1">
         <v>16.04</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="1">
         <v>157.22999999999999</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L107" s="2">
+      <c r="L107" s="1">
         <v>354.15</v>
       </c>
-      <c r="M107" s="2">
+      <c r="M107" s="1">
         <v>466.4</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C108" s="1">
+      <c r="C108">
         <v>2</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="1">
         <v>2.14</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1">
         <v>1.05</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="1">
         <v>13.84</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="1">
         <v>46.17</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="1">
         <v>27.76</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="1">
         <v>14.26</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108" s="1">
         <v>135.47999999999999</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="1">
         <v>14.4</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L108" s="1">
         <v>355.48</v>
       </c>
-      <c r="M108" s="2">
+      <c r="M108" s="1">
         <v>377.2</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C109" s="1">
+      <c r="C109">
         <v>3</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="1">
         <v>1.21</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="1">
         <v>15.34</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="1">
         <v>50.28</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="1">
         <v>32.159999999999997</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="1">
         <v>15.7</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109" s="1">
         <v>174.26</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="1">
         <v>16</v>
       </c>
-      <c r="L109" s="2">
+      <c r="L109" s="1">
         <v>364.5</v>
       </c>
-      <c r="M109" s="2">
+      <c r="M109" s="1">
         <v>478.4</v>
       </c>
     </row>
@@ -5994,107 +6157,107 @@
       <c r="B110" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>2.1</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <v>1.05</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="1">
         <v>15.42</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="1">
         <v>48.94</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="1">
         <v>31.68</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="1">
         <v>15.98</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110" s="1">
         <v>166.82</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="1">
         <v>15.2</v>
       </c>
-      <c r="L110" s="2">
+      <c r="L110" s="1">
         <v>391.31</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110" s="1">
         <v>434.8</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C111" s="1">
+      <c r="C111">
         <v>2</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="1">
         <v>2.15</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="1">
         <v>14.64</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="1">
         <v>45.1</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="1">
         <v>28.01</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="1">
         <v>15.56</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111" s="1">
         <v>130.51</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="1">
         <v>14.4</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111" s="1">
         <v>320.45999999999998</v>
       </c>
-      <c r="M111" s="2">
+      <c r="M111" s="1">
         <v>404.8</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C112" s="1">
+      <c r="C112">
         <v>3</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="1">
         <v>14.06</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="1">
         <v>44.3</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="1">
         <v>27.41</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="1">
         <v>16</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112" s="1">
         <v>126.96</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="1">
         <v>14</v>
       </c>
-      <c r="L112" s="2">
+      <c r="L112" s="1">
         <v>331.52</v>
       </c>
-      <c r="M112" s="2">
+      <c r="M112" s="1">
         <v>382.4</v>
       </c>
     </row>
@@ -6102,226 +6265,109 @@
       <c r="B113" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <v>2.09</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1">
         <v>1.06</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="1">
         <v>14.44</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="1">
         <v>43.48</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="1">
         <v>27.31</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="1">
         <v>15.14</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113" s="1">
         <v>118.92</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="1">
         <v>14</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M113" s="2">
+      <c r="M113" s="1">
         <v>355.6</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C114" s="1">
+      <c r="C114">
         <v>2</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1">
         <v>0.83</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="1">
         <v>14.24</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="1">
         <v>43.89</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="1">
         <v>26.2</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="1">
         <v>14.94</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114" s="1">
         <v>115.71</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="1">
         <v>14</v>
       </c>
-      <c r="L114" s="2">
+      <c r="L114" s="1">
         <v>274.08</v>
       </c>
-      <c r="M114" s="2">
+      <c r="M114" s="1">
         <v>417.6</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C115" s="1">
+      <c r="C115">
         <v>3</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="1">
         <v>1.98</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1">
         <v>0.84</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="1">
         <v>16.72</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="1">
         <v>44.19</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="1">
         <v>27.09</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="1">
         <v>17.559999999999999</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J115" s="1">
         <v>132.78</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="1">
         <v>15.6</v>
       </c>
-      <c r="L115" s="2">
+      <c r="L115" s="1">
         <v>273.83999999999997</v>
       </c>
-      <c r="M115" s="2">
+      <c r="M115" s="1">
         <v>486</v>
       </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6329,11 +6375,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D899C-1A67-4130-8C86-34512BCB0101}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
